--- a/biology/Botanique/Ocotea_commutata/Ocotea_commutata.xlsx
+++ b/biology/Botanique/Ocotea_commutata/Ocotea_commutata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ocotea commutata, est une espèce d'arbre de la famille des Lauraceae, originaire de Guyane.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet a décrit Cordia flavescens à partir d'un mélange d'éléments de Ocotea flavescens et de fleurs de Cordia[1], et en a proposé la diagnose suivante[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet a décrit Cordia flavescens à partir d'un mélange d'éléments de Ocotea flavescens et de fleurs de Cordia, et en a proposé la diagnose suivante : 
 « LE SEBESTIER ſarmenteux.  (PLANCHE 89.)
 Cet arbrisseau pouſſe de la racine pluſieurs tiges ligneuſes, ſarmenteuſes, rameuſes, longues de huit a neuf pieds, qui le répandent ſur les plantes ou arbriſſeaux voiſins. elles ſont garnies &amp; feuilles alternes, liſſes, vertes,entières . ovales, terminées par une longue pointe. 
 Leur pédicule eſt court. Les plus grandes out ſept pouces de longueur ſur trois de largeur. 
